--- a/init_scripts/INIT_TABLE_DATA/t_store_property.xlsx
+++ b/init_scripts/INIT_TABLE_DATA/t_store_property.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E732C1C-ED7B-4411-B4F3-D43A393495E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C021D8F1-1C39-4D86-A5A0-ED9EA6EA0CB5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>created</t>
-  </si>
-  <si>
-    <t>updated</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>p_type</t>
   </si>
@@ -40,20 +34,26 @@
     <t>p_description</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>value</t>
+    <t>tf_param</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exec_chrome_command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定chrome浏览器启动命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CeraVe适乐肤官方旗舰店</t>
   </si>
   <si>
     <t>store_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>testA</t>
+    <t>chrome --profile-directory="Profile 2001" --user-data-dir="C:/RPAData/chrome_user/2001_CeraVe"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -61,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,13 +76,33 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -97,8 +117,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -379,49 +402,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.08203125" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="86.9140625" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/init_scripts/INIT_TABLE_DATA/t_store_property.xlsx
+++ b/init_scripts/INIT_TABLE_DATA/t_store_property.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C021D8F1-1C39-4D86-A5A0-ED9EA6EA0CB5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB9F28C-A988-42A7-B32D-E68DD82B209C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="56">
   <si>
     <t>p_type</t>
   </si>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指定chrome浏览器启动命令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CeraVe适乐肤官方旗舰店</t>
   </si>
   <si>
@@ -53,8 +49,148 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>chrome --profile-directory="Profile 2001" --user-data-dir="C:/RPAData/chrome_user/2001_CeraVe"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>欧莱雅美发官方旗舰店</t>
+  </si>
+  <si>
+    <t>欧莱雅官方旗舰店</t>
+  </si>
+  <si>
+    <t>欧莱雅彩妆官方旗舰店</t>
+  </si>
+  <si>
+    <t>欧莱雅男士官方旗舰店</t>
+  </si>
+  <si>
+    <t>美宝莲旗舰店</t>
+  </si>
+  <si>
+    <t>美即官方旗舰店</t>
+  </si>
+  <si>
+    <t>stylenanda3ce旗舰店</t>
+  </si>
+  <si>
+    <t>Lancome兰蔻官方旗舰店</t>
+  </si>
+  <si>
+    <t>YSL圣罗兰美妆官方旗舰店</t>
+  </si>
+  <si>
+    <t>GIORGIO ARMANI阿玛尼美妆官方旗舰店</t>
+  </si>
+  <si>
+    <t>KIEHLS科颜氏官方旗舰店</t>
+  </si>
+  <si>
+    <t>biotherm碧欧泉官方旗舰店</t>
+  </si>
+  <si>
+    <t>shu uemura植村秀官方旗舰店</t>
+  </si>
+  <si>
+    <t>HR赫莲娜官方旗舰店</t>
+  </si>
+  <si>
+    <t>羽西官方旗舰店</t>
+  </si>
+  <si>
+    <t>HOUSE 99浩仕九九官方旗舰店</t>
+  </si>
+  <si>
+    <t>AtelierCologne欧珑官方旗舰店</t>
+  </si>
+  <si>
+    <t>修丽可官方旗舰店</t>
+  </si>
+  <si>
+    <t>巴黎欧莱雅沙龙专属旗舰店</t>
+  </si>
+  <si>
+    <t>卡诗官方旗舰店</t>
+  </si>
+  <si>
+    <t>理肤泉官方旗舰店</t>
+  </si>
+  <si>
+    <t>VICHY薇姿官方旗舰店</t>
+  </si>
+  <si>
+    <t>勃朗圣泉官方旗舰店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrome.exe --profile-directory="Profile 1001" --user-data-dir="C:/RPAData/chrome_user/1001_HAIR" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrome.exe --profile-directory="Profile 1002" --user-data-dir="C:/RPAData/chrome_user/1002_LRL" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrome.exe --profile-directory="Profile 1003" --user-data-dir="C:/RPAData/chrome_user/1003_MAKEUP" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrome.exe --profile-directory="Profile 1004" --user-data-dir="C:/RPAData/chrome_user/1004_MEX" </t>
+  </si>
+  <si>
+    <t>chrome.exe --profile-directory="Profile 1005" --user-data-dir="C:/RPAData/chrome_user/1005_MNY"</t>
+  </si>
+  <si>
+    <t>chrome.exe --profile-directory="Profile 1006" --user-data-dir="C:/RPAData/chrome_user/1006_MG"</t>
+  </si>
+  <si>
+    <t>chrome.exe --profile-directory="Profile 1007" --user-data-dir="C:/RPAData/chrome_user/1007_CeraVe"</t>
+  </si>
+  <si>
+    <t>chrome.exe --profile-directory="Profile 1008" --user-data-dir="C:/RPAData/chrome_user/1008_3CE"</t>
+  </si>
+  <si>
+    <t>chrome.exe --profile-directory="Profile 1009" --user-data-dir="C:/RPAData/chrome_user/1009_LAN"</t>
+  </si>
+  <si>
+    <t>chrome.exe --profile-directory="Profile 1010" --user-data-dir="C:/RPAData/chrome_user/1010_YSL"</t>
+  </si>
+  <si>
+    <t>chrome.exe --profile-directory="Profile 1011" --user-data-dir="C:/RPAData/chrome_user/1011_GA"</t>
+  </si>
+  <si>
+    <t>chrome.exe --profile-directory="Profile 1012" --user-data-dir="C:/RPAData/chrome_user/1012_KLS"</t>
+  </si>
+  <si>
+    <t>chrome.exe --profile-directory="Profile 1013" --user-data-dir="C:/RPAData/chrome_user/1013_BIO"</t>
+  </si>
+  <si>
+    <t>chrome.exe --profile-directory="Profile 1014" --user-data-dir="C:/RPAData/chrome_user/1014_SHU"</t>
+  </si>
+  <si>
+    <t>chrome.exe --profile-directory="Profile 1015" --user-data-dir="C:/RPAData/chrome_user/1015_HR"</t>
+  </si>
+  <si>
+    <t>chrome.exe --profile-directory="Profile 1016" --user-data-dir="C:/RPAData/chrome_user/1016_YS"</t>
+  </si>
+  <si>
+    <t>chrome.exe --profile-directory="Profile 1017" --user-data-dir="C:/RPAData/chrome_user/1017_H99"</t>
+  </si>
+  <si>
+    <t>chrome.exe --profile-directory="Profile 1018" --user-data-dir="C:/RPAData/chrome_user/1018_AC"</t>
+  </si>
+  <si>
+    <t>chrome.exe --profile-directory="Profile 1019" --user-data-dir="C:/RPAData/chrome_user/1019_SKC"</t>
+  </si>
+  <si>
+    <t>chrome.exe --profile-directory="Profile 1020" --user-data-dir="C:/RPAData/chrome_user/1020_LP"</t>
+  </si>
+  <si>
+    <t>chrome.exe --profile-directory="Profile 1021" --user-data-dir="C:/RPAData/chrome_user/1021_KS"</t>
+  </si>
+  <si>
+    <t>chrome.exe --profile-directory="Profile 1021" --user-data-dir="C:/RPAData/chrome_user/1022_LRP"</t>
+  </si>
+  <si>
+    <t>chrome.exe --profile-directory="Profile 1021" --user-data-dir="C:/RPAData/chrome_user/1023_VHY"</t>
+  </si>
+  <si>
+    <t>chrome.exe --profile-directory="Profile 1021" --user-data-dir="C:/RPAData/chrome_user/1024_SGMB"</t>
+  </si>
+  <si>
+    <t>指定chrome浏览器启动命令</t>
   </si>
 </sst>
 </file>
@@ -402,15 +538,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.08203125" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
     <col min="3" max="3" width="22.75" customWidth="1"/>
     <col min="4" max="4" width="86.9140625" customWidth="1"/>
     <col min="5" max="5" width="23.1640625" customWidth="1"/>
@@ -418,7 +554,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -435,7 +571,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -443,11 +579,402 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
